--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H2">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I2">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J2">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>24.971017922021</v>
+        <v>66.87992704388569</v>
       </c>
       <c r="R2">
-        <v>224.739161298189</v>
+        <v>601.9193433949711</v>
       </c>
       <c r="S2">
-        <v>0.006185509665534456</v>
+        <v>0.01399028497043437</v>
       </c>
       <c r="T2">
-        <v>0.006185509665534454</v>
+        <v>0.01399028497043437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H3">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I3">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J3">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>129.4361962623869</v>
+        <v>254.4089590311718</v>
       </c>
       <c r="R3">
-        <v>1164.925766361482</v>
+        <v>2289.680631280546</v>
       </c>
       <c r="S3">
-        <v>0.03206232303189228</v>
+        <v>0.05321856636509371</v>
       </c>
       <c r="T3">
-        <v>0.03206232303189227</v>
+        <v>0.05321856636509372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H4">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I4">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J4">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>39.87188315693444</v>
+        <v>96.59421456662756</v>
       </c>
       <c r="R4">
-        <v>358.84694841241</v>
+        <v>869.347931099648</v>
       </c>
       <c r="S4">
-        <v>0.00987656648280992</v>
+        <v>0.02020607150775815</v>
       </c>
       <c r="T4">
-        <v>0.009876566482809919</v>
+        <v>0.02020607150775815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H5">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I5">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J5">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.1199956231111111</v>
+        <v>1.065393841594445</v>
       </c>
       <c r="R5">
-        <v>1.079960608</v>
+        <v>9.588544574350001</v>
       </c>
       <c r="S5">
-        <v>2.972382178785988E-05</v>
+        <v>0.0002228645291414796</v>
       </c>
       <c r="T5">
-        <v>2.972382178785988E-05</v>
+        <v>0.0002228645291414797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>624.813553</v>
       </c>
       <c r="I6">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J6">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>462.305171186677</v>
+        <v>629.9580595242177</v>
       </c>
       <c r="R6">
-        <v>4160.746540680093</v>
+        <v>5669.622535717959</v>
       </c>
       <c r="S6">
-        <v>0.1145164812156089</v>
+        <v>0.1317778466830937</v>
       </c>
       <c r="T6">
-        <v>0.1145164812156089</v>
+        <v>0.1317778466830938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>624.813553</v>
       </c>
       <c r="I7">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J7">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
         <v>2396.33895012607</v>
@@ -883,10 +883,10 @@
         <v>21567.05055113463</v>
       </c>
       <c r="S7">
-        <v>0.5935912498316709</v>
+        <v>0.501278429565515</v>
       </c>
       <c r="T7">
-        <v>0.5935912498316707</v>
+        <v>0.5012784295655152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>624.813553</v>
       </c>
       <c r="I8">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J8">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>738.1748643953521</v>
+        <v>909.8440542515767</v>
       </c>
       <c r="R8">
-        <v>6643.573779558169</v>
+        <v>8188.596488264191</v>
       </c>
       <c r="S8">
-        <v>0.1828514869850565</v>
+        <v>0.1903258295913261</v>
       </c>
       <c r="T8">
-        <v>0.1828514869850565</v>
+        <v>0.1903258295913261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>624.813553</v>
       </c>
       <c r="I9">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J9">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>2.221559299555555</v>
+        <v>10.03519989846111</v>
       </c>
       <c r="R9">
-        <v>19.994033696</v>
+        <v>90.31679908615</v>
       </c>
       <c r="S9">
-        <v>0.0005502970108335371</v>
+        <v>0.00209921440588025</v>
       </c>
       <c r="T9">
-        <v>0.0005502970108335371</v>
+        <v>0.002099214405880251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H10">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I10">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J10">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N10">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O10">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P10">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q10">
-        <v>24.045675148168</v>
+        <v>37.60906669881167</v>
       </c>
       <c r="R10">
-        <v>216.411076333512</v>
+        <v>338.481600289305</v>
       </c>
       <c r="S10">
-        <v>0.005956295274296019</v>
+        <v>0.007867256796545078</v>
       </c>
       <c r="T10">
-        <v>0.005956295274296015</v>
+        <v>0.007867256796545079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H11">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I11">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J11">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.517578</v>
       </c>
       <c r="O11">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P11">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q11">
-        <v>124.6397218350951</v>
+        <v>143.0636056570478</v>
       </c>
       <c r="R11">
-        <v>1121.757496515856</v>
+        <v>1287.57245091343</v>
       </c>
       <c r="S11">
-        <v>0.0308742001038182</v>
+        <v>0.02992677624672927</v>
       </c>
       <c r="T11">
-        <v>0.03087420010381818</v>
+        <v>0.02992677624672928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H12">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I12">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J12">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N12">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P12">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q12">
-        <v>38.39436393547555</v>
+        <v>54.31851407331555</v>
       </c>
       <c r="R12">
-        <v>345.54927541928</v>
+        <v>488.86662665984</v>
       </c>
       <c r="S12">
-        <v>0.009510573816676462</v>
+        <v>0.01136262440234987</v>
       </c>
       <c r="T12">
-        <v>0.009510573816676457</v>
+        <v>0.01136262440234987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H13">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I13">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J13">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N13">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O13">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P13">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q13">
-        <v>0.1155489848888889</v>
+        <v>0.5991105226944445</v>
       </c>
       <c r="R13">
-        <v>1.039940864</v>
+        <v>5.39199470425</v>
       </c>
       <c r="S13">
-        <v>2.862235592897573E-05</v>
+        <v>0.0001253250012635509</v>
       </c>
       <c r="T13">
-        <v>2.862235592897572E-05</v>
+        <v>0.0001253250012635509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H14">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I14">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J14">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N14">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O14">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P14">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q14">
-        <v>7.242619224043</v>
+        <v>28.69324327744067</v>
       </c>
       <c r="R14">
-        <v>65.18357301638699</v>
+        <v>258.239189496966</v>
       </c>
       <c r="S14">
-        <v>0.001794051462139108</v>
+        <v>0.006002199283411069</v>
       </c>
       <c r="T14">
-        <v>0.001794051462139107</v>
+        <v>0.00600219928341107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H15">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I15">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J15">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.517578</v>
       </c>
       <c r="O15">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P15">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q15">
-        <v>37.54180491417844</v>
+        <v>109.1481177701018</v>
       </c>
       <c r="R15">
-        <v>337.8762442276059</v>
+        <v>982.3330599309161</v>
       </c>
       <c r="S15">
-        <v>0.009299388510449062</v>
+        <v>0.0228321611443782</v>
       </c>
       <c r="T15">
-        <v>0.009299388510449057</v>
+        <v>0.0228321611443782</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H16">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I16">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J16">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N16">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O16">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P16">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q16">
-        <v>11.56448120589222</v>
+        <v>41.44145217046756</v>
       </c>
       <c r="R16">
-        <v>104.08033085303</v>
+        <v>372.973069534208</v>
       </c>
       <c r="S16">
-        <v>0.002864609304246918</v>
+        <v>0.008668934777291621</v>
       </c>
       <c r="T16">
-        <v>0.002864609304246916</v>
+        <v>0.008668934777291623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H17">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I17">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J17">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N17">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P17">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q17">
-        <v>0.03480365155555555</v>
+        <v>0.4570819083444445</v>
       </c>
       <c r="R17">
-        <v>0.3132328639999999</v>
+        <v>4.113737175100001</v>
       </c>
       <c r="S17">
-        <v>8.621127251001502E-06</v>
+        <v>9.56147297883956E-05</v>
       </c>
       <c r="T17">
-        <v>8.621127251001499E-06</v>
+        <v>9.561472978839563E-05</v>
       </c>
     </row>
   </sheetData>
